--- a/yibuzhiyao-sercive/src/main/resources/yibuzhiyao_score_software.xlsx
+++ b/yibuzhiyao-sercive/src/main/resources/yibuzhiyao_score_software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{2C83C773-A417-4C9E-BB81-2AEA79466C04}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{FBCCF9BE-3EAC-4E59-9F25-85C3579D0CA0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2480" xr2:uid="{D247DF23-8C5F-4FCF-AB29-84052B0C0A73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12610" windowHeight="4640" xr2:uid="{D247DF23-8C5F-4FCF-AB29-84052B0C0A73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>学号</t>
   </si>
@@ -480,10 +480,6 @@
   </si>
   <si>
     <t>孙鑫鑫</t>
-  </si>
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>房晔</t>
@@ -494,13 +490,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>javaee</t>
-  </si>
-  <si>
-    <t>math</t>
-  </si>
-  <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>第一次上机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次上机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次上机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次上机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五次上机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤成绩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>课设成绩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总成绩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,7 +583,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -699,7 +721,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,21 +749,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,6 +762,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1071,21 +1087,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6826AB-EE72-4216-83DA-917F6CD7BF14}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="18"/>
+    <col min="1" max="1" width="8.25" style="13"/>
     <col min="2" max="2" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>158</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1093,18 +1109,33 @@
       <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="F1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1113,58 +1144,103 @@
       <c r="C2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="10">
-        <v>65</v>
-      </c>
-      <c r="E2" s="10">
-        <v>62</v>
-      </c>
-      <c r="F2" s="13">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="D2" s="15">
+        <v>65</v>
+      </c>
+      <c r="E2" s="15">
+        <v>62</v>
+      </c>
+      <c r="F2" s="15">
+        <v>66</v>
+      </c>
+      <c r="G2" s="15">
+        <v>66</v>
+      </c>
+      <c r="H2" s="15">
+        <v>66</v>
+      </c>
+      <c r="I2" s="15">
+        <v>66</v>
+      </c>
+      <c r="J2" s="15">
+        <v>66</v>
+      </c>
+      <c r="K2" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="15">
+        <v>65</v>
+      </c>
+      <c r="E3" s="15">
+        <v>62</v>
+      </c>
+      <c r="F3" s="15">
+        <v>66</v>
+      </c>
+      <c r="G3" s="15">
+        <v>66</v>
+      </c>
+      <c r="H3" s="15">
+        <v>66</v>
+      </c>
+      <c r="I3" s="15">
+        <v>66</v>
+      </c>
+      <c r="J3" s="15">
+        <v>66</v>
+      </c>
+      <c r="K3" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D3" s="10">
-        <v>65</v>
-      </c>
-      <c r="E3" s="10">
-        <v>62</v>
-      </c>
-      <c r="F3" s="13">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="10">
-        <v>65</v>
-      </c>
-      <c r="E4" s="10">
-        <v>62</v>
-      </c>
-      <c r="F4" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="D4" s="15">
+        <v>65</v>
+      </c>
+      <c r="E4" s="15">
+        <v>62</v>
+      </c>
+      <c r="F4" s="16">
+        <v>66</v>
+      </c>
+      <c r="G4" s="16">
+        <v>66</v>
+      </c>
+      <c r="H4" s="16">
+        <v>66</v>
+      </c>
+      <c r="I4" s="16">
+        <v>66</v>
+      </c>
+      <c r="J4" s="16">
+        <v>66</v>
+      </c>
+      <c r="K4" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1173,18 +1249,33 @@
       <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="10">
-        <v>65</v>
-      </c>
-      <c r="E5" s="10">
-        <v>62</v>
-      </c>
-      <c r="F5" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="D5" s="15">
+        <v>65</v>
+      </c>
+      <c r="E5" s="15">
+        <v>62</v>
+      </c>
+      <c r="F5" s="16">
+        <v>66</v>
+      </c>
+      <c r="G5" s="16">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16">
+        <v>66</v>
+      </c>
+      <c r="I5" s="16">
+        <v>66</v>
+      </c>
+      <c r="J5" s="16">
+        <v>66</v>
+      </c>
+      <c r="K5" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1193,18 +1284,33 @@
       <c r="C6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="10">
-        <v>65</v>
-      </c>
-      <c r="E6" s="10">
-        <v>62</v>
-      </c>
-      <c r="F6" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="D6" s="15">
+        <v>65</v>
+      </c>
+      <c r="E6" s="15">
+        <v>62</v>
+      </c>
+      <c r="F6" s="16">
+        <v>66</v>
+      </c>
+      <c r="G6" s="16">
+        <v>66</v>
+      </c>
+      <c r="H6" s="16">
+        <v>66</v>
+      </c>
+      <c r="I6" s="16">
+        <v>66</v>
+      </c>
+      <c r="J6" s="16">
+        <v>66</v>
+      </c>
+      <c r="K6" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1213,18 +1319,33 @@
       <c r="C7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="10">
-        <v>65</v>
-      </c>
-      <c r="E7" s="10">
-        <v>62</v>
-      </c>
-      <c r="F7" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="D7" s="15">
+        <v>65</v>
+      </c>
+      <c r="E7" s="15">
+        <v>62</v>
+      </c>
+      <c r="F7" s="16">
+        <v>66</v>
+      </c>
+      <c r="G7" s="16">
+        <v>66</v>
+      </c>
+      <c r="H7" s="16">
+        <v>66</v>
+      </c>
+      <c r="I7" s="16">
+        <v>66</v>
+      </c>
+      <c r="J7" s="16">
+        <v>66</v>
+      </c>
+      <c r="K7" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1233,18 +1354,33 @@
       <c r="C8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="10">
-        <v>65</v>
-      </c>
-      <c r="E8" s="10">
-        <v>62</v>
-      </c>
-      <c r="F8" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="D8" s="15">
+        <v>65</v>
+      </c>
+      <c r="E8" s="15">
+        <v>62</v>
+      </c>
+      <c r="F8" s="16">
+        <v>66</v>
+      </c>
+      <c r="G8" s="16">
+        <v>66</v>
+      </c>
+      <c r="H8" s="16">
+        <v>66</v>
+      </c>
+      <c r="I8" s="16">
+        <v>66</v>
+      </c>
+      <c r="J8" s="16">
+        <v>66</v>
+      </c>
+      <c r="K8" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1253,18 +1389,33 @@
       <c r="C9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="10">
-        <v>65</v>
-      </c>
-      <c r="E9" s="10">
-        <v>62</v>
-      </c>
-      <c r="F9" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="D9" s="15">
+        <v>65</v>
+      </c>
+      <c r="E9" s="15">
+        <v>62</v>
+      </c>
+      <c r="F9" s="16">
+        <v>66</v>
+      </c>
+      <c r="G9" s="16">
+        <v>66</v>
+      </c>
+      <c r="H9" s="16">
+        <v>66</v>
+      </c>
+      <c r="I9" s="16">
+        <v>66</v>
+      </c>
+      <c r="J9" s="16">
+        <v>66</v>
+      </c>
+      <c r="K9" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1273,18 +1424,33 @@
       <c r="C10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="10">
-        <v>65</v>
-      </c>
-      <c r="E10" s="10">
-        <v>62</v>
-      </c>
-      <c r="F10" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="D10" s="15">
+        <v>65</v>
+      </c>
+      <c r="E10" s="15">
+        <v>62</v>
+      </c>
+      <c r="F10" s="16">
+        <v>66</v>
+      </c>
+      <c r="G10" s="16">
+        <v>66</v>
+      </c>
+      <c r="H10" s="16">
+        <v>66</v>
+      </c>
+      <c r="I10" s="16">
+        <v>66</v>
+      </c>
+      <c r="J10" s="16">
+        <v>66</v>
+      </c>
+      <c r="K10" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1293,18 +1459,33 @@
       <c r="C11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="10">
-        <v>65</v>
-      </c>
-      <c r="E11" s="10">
-        <v>62</v>
-      </c>
-      <c r="F11" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="D11" s="15">
+        <v>65</v>
+      </c>
+      <c r="E11" s="15">
+        <v>62</v>
+      </c>
+      <c r="F11" s="16">
+        <v>66</v>
+      </c>
+      <c r="G11" s="16">
+        <v>66</v>
+      </c>
+      <c r="H11" s="16">
+        <v>66</v>
+      </c>
+      <c r="I11" s="16">
+        <v>66</v>
+      </c>
+      <c r="J11" s="16">
+        <v>66</v>
+      </c>
+      <c r="K11" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1313,18 +1494,33 @@
       <c r="C12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="10">
-        <v>65</v>
-      </c>
-      <c r="E12" s="10">
-        <v>62</v>
-      </c>
-      <c r="F12" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="D12" s="15">
+        <v>65</v>
+      </c>
+      <c r="E12" s="15">
+        <v>62</v>
+      </c>
+      <c r="F12" s="16">
+        <v>66</v>
+      </c>
+      <c r="G12" s="16">
+        <v>66</v>
+      </c>
+      <c r="H12" s="16">
+        <v>66</v>
+      </c>
+      <c r="I12" s="16">
+        <v>66</v>
+      </c>
+      <c r="J12" s="16">
+        <v>66</v>
+      </c>
+      <c r="K12" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1333,18 +1529,33 @@
       <c r="C13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="10">
-        <v>65</v>
-      </c>
-      <c r="E13" s="10">
-        <v>62</v>
-      </c>
-      <c r="F13" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="D13" s="15">
+        <v>65</v>
+      </c>
+      <c r="E13" s="15">
+        <v>62</v>
+      </c>
+      <c r="F13" s="16">
+        <v>66</v>
+      </c>
+      <c r="G13" s="16">
+        <v>66</v>
+      </c>
+      <c r="H13" s="16">
+        <v>66</v>
+      </c>
+      <c r="I13" s="16">
+        <v>66</v>
+      </c>
+      <c r="J13" s="16">
+        <v>66</v>
+      </c>
+      <c r="K13" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1353,18 +1564,33 @@
       <c r="C14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="10">
-        <v>65</v>
-      </c>
-      <c r="E14" s="10">
-        <v>62</v>
-      </c>
-      <c r="F14" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="D14" s="15">
+        <v>65</v>
+      </c>
+      <c r="E14" s="15">
+        <v>62</v>
+      </c>
+      <c r="F14" s="16">
+        <v>66</v>
+      </c>
+      <c r="G14" s="16">
+        <v>66</v>
+      </c>
+      <c r="H14" s="16">
+        <v>66</v>
+      </c>
+      <c r="I14" s="16">
+        <v>66</v>
+      </c>
+      <c r="J14" s="16">
+        <v>66</v>
+      </c>
+      <c r="K14" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1373,18 +1599,33 @@
       <c r="C15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="10">
-        <v>65</v>
-      </c>
-      <c r="E15" s="10">
-        <v>62</v>
-      </c>
-      <c r="F15" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="D15" s="15">
+        <v>65</v>
+      </c>
+      <c r="E15" s="15">
+        <v>62</v>
+      </c>
+      <c r="F15" s="16">
+        <v>66</v>
+      </c>
+      <c r="G15" s="16">
+        <v>66</v>
+      </c>
+      <c r="H15" s="16">
+        <v>66</v>
+      </c>
+      <c r="I15" s="16">
+        <v>66</v>
+      </c>
+      <c r="J15" s="16">
+        <v>66</v>
+      </c>
+      <c r="K15" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1393,18 +1634,33 @@
       <c r="C16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="10">
-        <v>65</v>
-      </c>
-      <c r="E16" s="10">
-        <v>62</v>
-      </c>
-      <c r="F16" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="D16" s="15">
+        <v>65</v>
+      </c>
+      <c r="E16" s="15">
+        <v>62</v>
+      </c>
+      <c r="F16" s="16">
+        <v>66</v>
+      </c>
+      <c r="G16" s="16">
+        <v>66</v>
+      </c>
+      <c r="H16" s="16">
+        <v>66</v>
+      </c>
+      <c r="I16" s="16">
+        <v>66</v>
+      </c>
+      <c r="J16" s="16">
+        <v>66</v>
+      </c>
+      <c r="K16" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1413,18 +1669,33 @@
       <c r="C17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="10">
-        <v>65</v>
-      </c>
-      <c r="E17" s="10">
-        <v>62</v>
-      </c>
-      <c r="F17" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="D17" s="15">
+        <v>65</v>
+      </c>
+      <c r="E17" s="15">
+        <v>62</v>
+      </c>
+      <c r="F17" s="16">
+        <v>66</v>
+      </c>
+      <c r="G17" s="16">
+        <v>66</v>
+      </c>
+      <c r="H17" s="16">
+        <v>66</v>
+      </c>
+      <c r="I17" s="16">
+        <v>66</v>
+      </c>
+      <c r="J17" s="16">
+        <v>66</v>
+      </c>
+      <c r="K17" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1433,18 +1704,33 @@
       <c r="C18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="10">
-        <v>65</v>
-      </c>
-      <c r="E18" s="10">
-        <v>62</v>
-      </c>
-      <c r="F18" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="D18" s="15">
+        <v>65</v>
+      </c>
+      <c r="E18" s="15">
+        <v>62</v>
+      </c>
+      <c r="F18" s="16">
+        <v>66</v>
+      </c>
+      <c r="G18" s="16">
+        <v>66</v>
+      </c>
+      <c r="H18" s="16">
+        <v>66</v>
+      </c>
+      <c r="I18" s="16">
+        <v>66</v>
+      </c>
+      <c r="J18" s="16">
+        <v>66</v>
+      </c>
+      <c r="K18" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1453,18 +1739,33 @@
       <c r="C19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="10">
-        <v>65</v>
-      </c>
-      <c r="E19" s="10">
-        <v>62</v>
-      </c>
-      <c r="F19" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="D19" s="15">
+        <v>65</v>
+      </c>
+      <c r="E19" s="15">
+        <v>62</v>
+      </c>
+      <c r="F19" s="16">
+        <v>66</v>
+      </c>
+      <c r="G19" s="16">
+        <v>66</v>
+      </c>
+      <c r="H19" s="16">
+        <v>66</v>
+      </c>
+      <c r="I19" s="16">
+        <v>66</v>
+      </c>
+      <c r="J19" s="16">
+        <v>66</v>
+      </c>
+      <c r="K19" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1473,18 +1774,33 @@
       <c r="C20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="10">
-        <v>65</v>
-      </c>
-      <c r="E20" s="10">
-        <v>62</v>
-      </c>
-      <c r="F20" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="D20" s="15">
+        <v>65</v>
+      </c>
+      <c r="E20" s="15">
+        <v>62</v>
+      </c>
+      <c r="F20" s="16">
+        <v>66</v>
+      </c>
+      <c r="G20" s="16">
+        <v>66</v>
+      </c>
+      <c r="H20" s="16">
+        <v>66</v>
+      </c>
+      <c r="I20" s="16">
+        <v>66</v>
+      </c>
+      <c r="J20" s="16">
+        <v>66</v>
+      </c>
+      <c r="K20" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1493,18 +1809,33 @@
       <c r="C21" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="10">
-        <v>65</v>
-      </c>
-      <c r="E21" s="10">
-        <v>62</v>
-      </c>
-      <c r="F21" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="D21" s="15">
+        <v>65</v>
+      </c>
+      <c r="E21" s="15">
+        <v>62</v>
+      </c>
+      <c r="F21" s="16">
+        <v>66</v>
+      </c>
+      <c r="G21" s="16">
+        <v>66</v>
+      </c>
+      <c r="H21" s="16">
+        <v>66</v>
+      </c>
+      <c r="I21" s="16">
+        <v>66</v>
+      </c>
+      <c r="J21" s="16">
+        <v>66</v>
+      </c>
+      <c r="K21" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1513,18 +1844,33 @@
       <c r="C22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="10">
-        <v>65</v>
-      </c>
-      <c r="E22" s="10">
-        <v>62</v>
-      </c>
-      <c r="F22" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="D22" s="15">
+        <v>65</v>
+      </c>
+      <c r="E22" s="15">
+        <v>62</v>
+      </c>
+      <c r="F22" s="16">
+        <v>66</v>
+      </c>
+      <c r="G22" s="16">
+        <v>66</v>
+      </c>
+      <c r="H22" s="16">
+        <v>66</v>
+      </c>
+      <c r="I22" s="16">
+        <v>66</v>
+      </c>
+      <c r="J22" s="16">
+        <v>66</v>
+      </c>
+      <c r="K22" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1533,18 +1879,33 @@
       <c r="C23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="10">
-        <v>65</v>
-      </c>
-      <c r="E23" s="10">
-        <v>62</v>
-      </c>
-      <c r="F23" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="D23" s="15">
+        <v>65</v>
+      </c>
+      <c r="E23" s="15">
+        <v>62</v>
+      </c>
+      <c r="F23" s="16">
+        <v>66</v>
+      </c>
+      <c r="G23" s="16">
+        <v>66</v>
+      </c>
+      <c r="H23" s="16">
+        <v>66</v>
+      </c>
+      <c r="I23" s="16">
+        <v>66</v>
+      </c>
+      <c r="J23" s="16">
+        <v>66</v>
+      </c>
+      <c r="K23" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1553,18 +1914,33 @@
       <c r="C24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="10">
-        <v>65</v>
-      </c>
-      <c r="E24" s="10">
-        <v>62</v>
-      </c>
-      <c r="F24" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+      <c r="D24" s="15">
+        <v>65</v>
+      </c>
+      <c r="E24" s="15">
+        <v>62</v>
+      </c>
+      <c r="F24" s="16">
+        <v>66</v>
+      </c>
+      <c r="G24" s="16">
+        <v>66</v>
+      </c>
+      <c r="H24" s="16">
+        <v>66</v>
+      </c>
+      <c r="I24" s="16">
+        <v>66</v>
+      </c>
+      <c r="J24" s="16">
+        <v>66</v>
+      </c>
+      <c r="K24" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1573,18 +1949,33 @@
       <c r="C25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="10">
-        <v>65</v>
-      </c>
-      <c r="E25" s="10">
-        <v>62</v>
-      </c>
-      <c r="F25" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="D25" s="15">
+        <v>65</v>
+      </c>
+      <c r="E25" s="15">
+        <v>62</v>
+      </c>
+      <c r="F25" s="16">
+        <v>66</v>
+      </c>
+      <c r="G25" s="16">
+        <v>66</v>
+      </c>
+      <c r="H25" s="16">
+        <v>66</v>
+      </c>
+      <c r="I25" s="16">
+        <v>66</v>
+      </c>
+      <c r="J25" s="16">
+        <v>66</v>
+      </c>
+      <c r="K25" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1593,18 +1984,33 @@
       <c r="C26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="10">
-        <v>65</v>
-      </c>
-      <c r="E26" s="10">
-        <v>62</v>
-      </c>
-      <c r="F26" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
+      <c r="D26" s="15">
+        <v>65</v>
+      </c>
+      <c r="E26" s="15">
+        <v>62</v>
+      </c>
+      <c r="F26" s="16">
+        <v>66</v>
+      </c>
+      <c r="G26" s="16">
+        <v>66</v>
+      </c>
+      <c r="H26" s="16">
+        <v>66</v>
+      </c>
+      <c r="I26" s="16">
+        <v>66</v>
+      </c>
+      <c r="J26" s="16">
+        <v>66</v>
+      </c>
+      <c r="K26" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1613,18 +2019,33 @@
       <c r="C27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="10">
-        <v>65</v>
-      </c>
-      <c r="E27" s="10">
-        <v>62</v>
-      </c>
-      <c r="F27" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
+      <c r="D27" s="15">
+        <v>65</v>
+      </c>
+      <c r="E27" s="15">
+        <v>62</v>
+      </c>
+      <c r="F27" s="16">
+        <v>66</v>
+      </c>
+      <c r="G27" s="16">
+        <v>66</v>
+      </c>
+      <c r="H27" s="16">
+        <v>66</v>
+      </c>
+      <c r="I27" s="16">
+        <v>66</v>
+      </c>
+      <c r="J27" s="16">
+        <v>66</v>
+      </c>
+      <c r="K27" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1633,18 +2054,33 @@
       <c r="C28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="10">
-        <v>65</v>
-      </c>
-      <c r="E28" s="10">
-        <v>62</v>
-      </c>
-      <c r="F28" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="D28" s="15">
+        <v>65</v>
+      </c>
+      <c r="E28" s="15">
+        <v>62</v>
+      </c>
+      <c r="F28" s="16">
+        <v>66</v>
+      </c>
+      <c r="G28" s="16">
+        <v>66</v>
+      </c>
+      <c r="H28" s="16">
+        <v>66</v>
+      </c>
+      <c r="I28" s="16">
+        <v>66</v>
+      </c>
+      <c r="J28" s="16">
+        <v>66</v>
+      </c>
+      <c r="K28" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1653,18 +2089,33 @@
       <c r="C29" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="10">
-        <v>65</v>
-      </c>
-      <c r="E29" s="10">
-        <v>62</v>
-      </c>
-      <c r="F29" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+      <c r="D29" s="15">
+        <v>65</v>
+      </c>
+      <c r="E29" s="15">
+        <v>62</v>
+      </c>
+      <c r="F29" s="16">
+        <v>66</v>
+      </c>
+      <c r="G29" s="16">
+        <v>66</v>
+      </c>
+      <c r="H29" s="16">
+        <v>66</v>
+      </c>
+      <c r="I29" s="16">
+        <v>66</v>
+      </c>
+      <c r="J29" s="16">
+        <v>66</v>
+      </c>
+      <c r="K29" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1673,18 +2124,33 @@
       <c r="C30" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="10">
-        <v>65</v>
-      </c>
-      <c r="E30" s="10">
-        <v>62</v>
-      </c>
-      <c r="F30" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+      <c r="D30" s="15">
+        <v>65</v>
+      </c>
+      <c r="E30" s="15">
+        <v>62</v>
+      </c>
+      <c r="F30" s="16">
+        <v>66</v>
+      </c>
+      <c r="G30" s="16">
+        <v>66</v>
+      </c>
+      <c r="H30" s="16">
+        <v>66</v>
+      </c>
+      <c r="I30" s="16">
+        <v>66</v>
+      </c>
+      <c r="J30" s="16">
+        <v>66</v>
+      </c>
+      <c r="K30" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1693,18 +2159,33 @@
       <c r="C31" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="10">
-        <v>65</v>
-      </c>
-      <c r="E31" s="10">
-        <v>62</v>
-      </c>
-      <c r="F31" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
+      <c r="D31" s="15">
+        <v>65</v>
+      </c>
+      <c r="E31" s="15">
+        <v>62</v>
+      </c>
+      <c r="F31" s="16">
+        <v>66</v>
+      </c>
+      <c r="G31" s="16">
+        <v>66</v>
+      </c>
+      <c r="H31" s="16">
+        <v>66</v>
+      </c>
+      <c r="I31" s="16">
+        <v>66</v>
+      </c>
+      <c r="J31" s="16">
+        <v>66</v>
+      </c>
+      <c r="K31" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1713,18 +2194,33 @@
       <c r="C32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="10">
-        <v>65</v>
-      </c>
-      <c r="E32" s="10">
-        <v>62</v>
-      </c>
-      <c r="F32" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
+      <c r="D32" s="15">
+        <v>65</v>
+      </c>
+      <c r="E32" s="15">
+        <v>62</v>
+      </c>
+      <c r="F32" s="16">
+        <v>66</v>
+      </c>
+      <c r="G32" s="16">
+        <v>66</v>
+      </c>
+      <c r="H32" s="16">
+        <v>66</v>
+      </c>
+      <c r="I32" s="16">
+        <v>66</v>
+      </c>
+      <c r="J32" s="16">
+        <v>66</v>
+      </c>
+      <c r="K32" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1733,18 +2229,33 @@
       <c r="C33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="10">
-        <v>65</v>
-      </c>
-      <c r="E33" s="10">
-        <v>62</v>
-      </c>
-      <c r="F33" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
+      <c r="D33" s="15">
+        <v>65</v>
+      </c>
+      <c r="E33" s="15">
+        <v>62</v>
+      </c>
+      <c r="F33" s="16">
+        <v>66</v>
+      </c>
+      <c r="G33" s="16">
+        <v>66</v>
+      </c>
+      <c r="H33" s="16">
+        <v>66</v>
+      </c>
+      <c r="I33" s="16">
+        <v>66</v>
+      </c>
+      <c r="J33" s="16">
+        <v>66</v>
+      </c>
+      <c r="K33" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1753,18 +2264,33 @@
       <c r="C34" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="10">
-        <v>65</v>
-      </c>
-      <c r="E34" s="10">
-        <v>62</v>
-      </c>
-      <c r="F34" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
+      <c r="D34" s="15">
+        <v>65</v>
+      </c>
+      <c r="E34" s="15">
+        <v>62</v>
+      </c>
+      <c r="F34" s="16">
+        <v>66</v>
+      </c>
+      <c r="G34" s="16">
+        <v>66</v>
+      </c>
+      <c r="H34" s="16">
+        <v>66</v>
+      </c>
+      <c r="I34" s="16">
+        <v>66</v>
+      </c>
+      <c r="J34" s="16">
+        <v>66</v>
+      </c>
+      <c r="K34" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1773,18 +2299,33 @@
       <c r="C35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="10">
-        <v>65</v>
-      </c>
-      <c r="E35" s="10">
-        <v>62</v>
-      </c>
-      <c r="F35" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
+      <c r="D35" s="15">
+        <v>65</v>
+      </c>
+      <c r="E35" s="15">
+        <v>62</v>
+      </c>
+      <c r="F35" s="16">
+        <v>66</v>
+      </c>
+      <c r="G35" s="16">
+        <v>66</v>
+      </c>
+      <c r="H35" s="16">
+        <v>66</v>
+      </c>
+      <c r="I35" s="16">
+        <v>66</v>
+      </c>
+      <c r="J35" s="16">
+        <v>66</v>
+      </c>
+      <c r="K35" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1793,18 +2334,33 @@
       <c r="C36" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="10">
-        <v>65</v>
-      </c>
-      <c r="E36" s="10">
-        <v>62</v>
-      </c>
-      <c r="F36" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="15">
+      <c r="D36" s="15">
+        <v>65</v>
+      </c>
+      <c r="E36" s="15">
+        <v>62</v>
+      </c>
+      <c r="F36" s="16">
+        <v>66</v>
+      </c>
+      <c r="G36" s="16">
+        <v>66</v>
+      </c>
+      <c r="H36" s="16">
+        <v>66</v>
+      </c>
+      <c r="I36" s="16">
+        <v>66</v>
+      </c>
+      <c r="J36" s="16">
+        <v>66</v>
+      </c>
+      <c r="K36" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1813,18 +2369,33 @@
       <c r="C37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="10">
-        <v>65</v>
-      </c>
-      <c r="E37" s="10">
-        <v>62</v>
-      </c>
-      <c r="F37" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="15">
+      <c r="D37" s="15">
+        <v>65</v>
+      </c>
+      <c r="E37" s="15">
+        <v>62</v>
+      </c>
+      <c r="F37" s="16">
+        <v>66</v>
+      </c>
+      <c r="G37" s="16">
+        <v>66</v>
+      </c>
+      <c r="H37" s="16">
+        <v>66</v>
+      </c>
+      <c r="I37" s="16">
+        <v>66</v>
+      </c>
+      <c r="J37" s="16">
+        <v>66</v>
+      </c>
+      <c r="K37" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1833,18 +2404,33 @@
       <c r="C38" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="10">
-        <v>65</v>
-      </c>
-      <c r="E38" s="10">
-        <v>62</v>
-      </c>
-      <c r="F38" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="15">
+      <c r="D38" s="15">
+        <v>65</v>
+      </c>
+      <c r="E38" s="15">
+        <v>62</v>
+      </c>
+      <c r="F38" s="16">
+        <v>66</v>
+      </c>
+      <c r="G38" s="16">
+        <v>66</v>
+      </c>
+      <c r="H38" s="16">
+        <v>66</v>
+      </c>
+      <c r="I38" s="16">
+        <v>66</v>
+      </c>
+      <c r="J38" s="16">
+        <v>66</v>
+      </c>
+      <c r="K38" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1853,18 +2439,33 @@
       <c r="C39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="10">
-        <v>65</v>
-      </c>
-      <c r="E39" s="10">
-        <v>62</v>
-      </c>
-      <c r="F39" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
+      <c r="D39" s="15">
+        <v>65</v>
+      </c>
+      <c r="E39" s="15">
+        <v>62</v>
+      </c>
+      <c r="F39" s="16">
+        <v>66</v>
+      </c>
+      <c r="G39" s="16">
+        <v>66</v>
+      </c>
+      <c r="H39" s="16">
+        <v>66</v>
+      </c>
+      <c r="I39" s="16">
+        <v>66</v>
+      </c>
+      <c r="J39" s="16">
+        <v>66</v>
+      </c>
+      <c r="K39" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1873,18 +2474,33 @@
       <c r="C40" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="10">
-        <v>65</v>
-      </c>
-      <c r="E40" s="10">
-        <v>62</v>
-      </c>
-      <c r="F40" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="15">
+      <c r="D40" s="15">
+        <v>65</v>
+      </c>
+      <c r="E40" s="15">
+        <v>62</v>
+      </c>
+      <c r="F40" s="16">
+        <v>66</v>
+      </c>
+      <c r="G40" s="16">
+        <v>66</v>
+      </c>
+      <c r="H40" s="16">
+        <v>66</v>
+      </c>
+      <c r="I40" s="16">
+        <v>66</v>
+      </c>
+      <c r="J40" s="16">
+        <v>66</v>
+      </c>
+      <c r="K40" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1893,18 +2509,33 @@
       <c r="C41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="10">
-        <v>65</v>
-      </c>
-      <c r="E41" s="10">
-        <v>62</v>
-      </c>
-      <c r="F41" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
+      <c r="D41" s="15">
+        <v>65</v>
+      </c>
+      <c r="E41" s="15">
+        <v>62</v>
+      </c>
+      <c r="F41" s="16">
+        <v>66</v>
+      </c>
+      <c r="G41" s="16">
+        <v>66</v>
+      </c>
+      <c r="H41" s="16">
+        <v>66</v>
+      </c>
+      <c r="I41" s="16">
+        <v>66</v>
+      </c>
+      <c r="J41" s="16">
+        <v>66</v>
+      </c>
+      <c r="K41" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1913,18 +2544,33 @@
       <c r="C42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="10">
-        <v>65</v>
-      </c>
-      <c r="E42" s="10">
-        <v>62</v>
-      </c>
-      <c r="F42" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="15">
+      <c r="D42" s="15">
+        <v>65</v>
+      </c>
+      <c r="E42" s="15">
+        <v>62</v>
+      </c>
+      <c r="F42" s="16">
+        <v>66</v>
+      </c>
+      <c r="G42" s="16">
+        <v>66</v>
+      </c>
+      <c r="H42" s="16">
+        <v>66</v>
+      </c>
+      <c r="I42" s="16">
+        <v>66</v>
+      </c>
+      <c r="J42" s="16">
+        <v>66</v>
+      </c>
+      <c r="K42" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1933,18 +2579,33 @@
       <c r="C43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="10">
-        <v>65</v>
-      </c>
-      <c r="E43" s="10">
-        <v>62</v>
-      </c>
-      <c r="F43" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
+      <c r="D43" s="15">
+        <v>65</v>
+      </c>
+      <c r="E43" s="15">
+        <v>62</v>
+      </c>
+      <c r="F43" s="16">
+        <v>66</v>
+      </c>
+      <c r="G43" s="16">
+        <v>66</v>
+      </c>
+      <c r="H43" s="16">
+        <v>66</v>
+      </c>
+      <c r="I43" s="16">
+        <v>66</v>
+      </c>
+      <c r="J43" s="16">
+        <v>66</v>
+      </c>
+      <c r="K43" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1953,18 +2614,33 @@
       <c r="C44" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="10">
-        <v>65</v>
-      </c>
-      <c r="E44" s="10">
-        <v>62</v>
-      </c>
-      <c r="F44" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="15">
+      <c r="D44" s="15">
+        <v>65</v>
+      </c>
+      <c r="E44" s="15">
+        <v>62</v>
+      </c>
+      <c r="F44" s="16">
+        <v>66</v>
+      </c>
+      <c r="G44" s="16">
+        <v>66</v>
+      </c>
+      <c r="H44" s="16">
+        <v>66</v>
+      </c>
+      <c r="I44" s="16">
+        <v>66</v>
+      </c>
+      <c r="J44" s="16">
+        <v>66</v>
+      </c>
+      <c r="K44" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1973,18 +2649,33 @@
       <c r="C45" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="10">
-        <v>65</v>
-      </c>
-      <c r="E45" s="10">
-        <v>62</v>
-      </c>
-      <c r="F45" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
+      <c r="D45" s="15">
+        <v>65</v>
+      </c>
+      <c r="E45" s="15">
+        <v>62</v>
+      </c>
+      <c r="F45" s="16">
+        <v>66</v>
+      </c>
+      <c r="G45" s="16">
+        <v>66</v>
+      </c>
+      <c r="H45" s="16">
+        <v>66</v>
+      </c>
+      <c r="I45" s="16">
+        <v>66</v>
+      </c>
+      <c r="J45" s="16">
+        <v>66</v>
+      </c>
+      <c r="K45" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1993,18 +2684,33 @@
       <c r="C46" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="10">
-        <v>65</v>
-      </c>
-      <c r="E46" s="10">
-        <v>62</v>
-      </c>
-      <c r="F46" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
+      <c r="D46" s="15">
+        <v>65</v>
+      </c>
+      <c r="E46" s="15">
+        <v>62</v>
+      </c>
+      <c r="F46" s="16">
+        <v>66</v>
+      </c>
+      <c r="G46" s="16">
+        <v>66</v>
+      </c>
+      <c r="H46" s="16">
+        <v>66</v>
+      </c>
+      <c r="I46" s="16">
+        <v>66</v>
+      </c>
+      <c r="J46" s="16">
+        <v>66</v>
+      </c>
+      <c r="K46" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2013,18 +2719,33 @@
       <c r="C47" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="10">
-        <v>65</v>
-      </c>
-      <c r="E47" s="10">
-        <v>62</v>
-      </c>
-      <c r="F47" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
+      <c r="D47" s="15">
+        <v>65</v>
+      </c>
+      <c r="E47" s="15">
+        <v>62</v>
+      </c>
+      <c r="F47" s="16">
+        <v>66</v>
+      </c>
+      <c r="G47" s="16">
+        <v>66</v>
+      </c>
+      <c r="H47" s="16">
+        <v>66</v>
+      </c>
+      <c r="I47" s="16">
+        <v>66</v>
+      </c>
+      <c r="J47" s="16">
+        <v>66</v>
+      </c>
+      <c r="K47" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2033,18 +2754,33 @@
       <c r="C48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="10">
-        <v>65</v>
-      </c>
-      <c r="E48" s="10">
-        <v>62</v>
-      </c>
-      <c r="F48" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="15">
+      <c r="D48" s="15">
+        <v>65</v>
+      </c>
+      <c r="E48" s="15">
+        <v>62</v>
+      </c>
+      <c r="F48" s="16">
+        <v>66</v>
+      </c>
+      <c r="G48" s="16">
+        <v>66</v>
+      </c>
+      <c r="H48" s="16">
+        <v>66</v>
+      </c>
+      <c r="I48" s="16">
+        <v>66</v>
+      </c>
+      <c r="J48" s="16">
+        <v>66</v>
+      </c>
+      <c r="K48" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2053,18 +2789,33 @@
       <c r="C49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="10">
-        <v>65</v>
-      </c>
-      <c r="E49" s="10">
-        <v>62</v>
-      </c>
-      <c r="F49" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="15">
+      <c r="D49" s="15">
+        <v>65</v>
+      </c>
+      <c r="E49" s="15">
+        <v>62</v>
+      </c>
+      <c r="F49" s="16">
+        <v>66</v>
+      </c>
+      <c r="G49" s="16">
+        <v>66</v>
+      </c>
+      <c r="H49" s="16">
+        <v>66</v>
+      </c>
+      <c r="I49" s="16">
+        <v>66</v>
+      </c>
+      <c r="J49" s="16">
+        <v>66</v>
+      </c>
+      <c r="K49" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2073,18 +2824,33 @@
       <c r="C50" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="10">
-        <v>65</v>
-      </c>
-      <c r="E50" s="10">
-        <v>62</v>
-      </c>
-      <c r="F50" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="15">
+      <c r="D50" s="15">
+        <v>65</v>
+      </c>
+      <c r="E50" s="15">
+        <v>62</v>
+      </c>
+      <c r="F50" s="16">
+        <v>66</v>
+      </c>
+      <c r="G50" s="16">
+        <v>66</v>
+      </c>
+      <c r="H50" s="16">
+        <v>66</v>
+      </c>
+      <c r="I50" s="16">
+        <v>66</v>
+      </c>
+      <c r="J50" s="16">
+        <v>66</v>
+      </c>
+      <c r="K50" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2093,18 +2859,33 @@
       <c r="C51" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="10">
-        <v>65</v>
-      </c>
-      <c r="E51" s="10">
-        <v>62</v>
-      </c>
-      <c r="F51" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="15">
+      <c r="D51" s="15">
+        <v>65</v>
+      </c>
+      <c r="E51" s="15">
+        <v>62</v>
+      </c>
+      <c r="F51" s="16">
+        <v>66</v>
+      </c>
+      <c r="G51" s="16">
+        <v>66</v>
+      </c>
+      <c r="H51" s="16">
+        <v>66</v>
+      </c>
+      <c r="I51" s="16">
+        <v>66</v>
+      </c>
+      <c r="J51" s="16">
+        <v>66</v>
+      </c>
+      <c r="K51" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2113,18 +2894,33 @@
       <c r="C52" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="10">
-        <v>65</v>
-      </c>
-      <c r="E52" s="10">
-        <v>62</v>
-      </c>
-      <c r="F52" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="15">
+      <c r="D52" s="15">
+        <v>65</v>
+      </c>
+      <c r="E52" s="15">
+        <v>62</v>
+      </c>
+      <c r="F52" s="16">
+        <v>66</v>
+      </c>
+      <c r="G52" s="16">
+        <v>66</v>
+      </c>
+      <c r="H52" s="16">
+        <v>66</v>
+      </c>
+      <c r="I52" s="16">
+        <v>66</v>
+      </c>
+      <c r="J52" s="16">
+        <v>66</v>
+      </c>
+      <c r="K52" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2133,18 +2929,33 @@
       <c r="C53" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="10">
-        <v>65</v>
-      </c>
-      <c r="E53" s="10">
-        <v>62</v>
-      </c>
-      <c r="F53" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="15">
+      <c r="D53" s="15">
+        <v>65</v>
+      </c>
+      <c r="E53" s="15">
+        <v>62</v>
+      </c>
+      <c r="F53" s="16">
+        <v>66</v>
+      </c>
+      <c r="G53" s="16">
+        <v>66</v>
+      </c>
+      <c r="H53" s="16">
+        <v>66</v>
+      </c>
+      <c r="I53" s="16">
+        <v>66</v>
+      </c>
+      <c r="J53" s="16">
+        <v>66</v>
+      </c>
+      <c r="K53" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2153,18 +2964,33 @@
       <c r="C54" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="10">
-        <v>65</v>
-      </c>
-      <c r="E54" s="10">
-        <v>62</v>
-      </c>
-      <c r="F54" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="15">
+      <c r="D54" s="15">
+        <v>65</v>
+      </c>
+      <c r="E54" s="15">
+        <v>62</v>
+      </c>
+      <c r="F54" s="16">
+        <v>66</v>
+      </c>
+      <c r="G54" s="16">
+        <v>66</v>
+      </c>
+      <c r="H54" s="16">
+        <v>66</v>
+      </c>
+      <c r="I54" s="16">
+        <v>66</v>
+      </c>
+      <c r="J54" s="16">
+        <v>66</v>
+      </c>
+      <c r="K54" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2173,18 +2999,33 @@
       <c r="C55" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="10">
-        <v>65</v>
-      </c>
-      <c r="E55" s="10">
-        <v>62</v>
-      </c>
-      <c r="F55" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="15">
+      <c r="D55" s="15">
+        <v>65</v>
+      </c>
+      <c r="E55" s="15">
+        <v>62</v>
+      </c>
+      <c r="F55" s="16">
+        <v>66</v>
+      </c>
+      <c r="G55" s="16">
+        <v>66</v>
+      </c>
+      <c r="H55" s="16">
+        <v>66</v>
+      </c>
+      <c r="I55" s="16">
+        <v>66</v>
+      </c>
+      <c r="J55" s="16">
+        <v>66</v>
+      </c>
+      <c r="K55" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2193,18 +3034,33 @@
       <c r="C56" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="10">
-        <v>65</v>
-      </c>
-      <c r="E56" s="10">
-        <v>62</v>
-      </c>
-      <c r="F56" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="15">
+      <c r="D56" s="15">
+        <v>65</v>
+      </c>
+      <c r="E56" s="15">
+        <v>62</v>
+      </c>
+      <c r="F56" s="16">
+        <v>66</v>
+      </c>
+      <c r="G56" s="16">
+        <v>66</v>
+      </c>
+      <c r="H56" s="16">
+        <v>66</v>
+      </c>
+      <c r="I56" s="16">
+        <v>66</v>
+      </c>
+      <c r="J56" s="16">
+        <v>66</v>
+      </c>
+      <c r="K56" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2213,18 +3069,33 @@
       <c r="C57" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="10">
-        <v>65</v>
-      </c>
-      <c r="E57" s="10">
-        <v>62</v>
-      </c>
-      <c r="F57" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="15">
+      <c r="D57" s="15">
+        <v>65</v>
+      </c>
+      <c r="E57" s="15">
+        <v>62</v>
+      </c>
+      <c r="F57" s="16">
+        <v>66</v>
+      </c>
+      <c r="G57" s="16">
+        <v>66</v>
+      </c>
+      <c r="H57" s="16">
+        <v>66</v>
+      </c>
+      <c r="I57" s="16">
+        <v>66</v>
+      </c>
+      <c r="J57" s="16">
+        <v>66</v>
+      </c>
+      <c r="K57" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2233,18 +3104,33 @@
       <c r="C58" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D58" s="10">
-        <v>65</v>
-      </c>
-      <c r="E58" s="10">
-        <v>62</v>
-      </c>
-      <c r="F58" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="15">
+      <c r="D58" s="15">
+        <v>65</v>
+      </c>
+      <c r="E58" s="15">
+        <v>62</v>
+      </c>
+      <c r="F58" s="16">
+        <v>66</v>
+      </c>
+      <c r="G58" s="16">
+        <v>66</v>
+      </c>
+      <c r="H58" s="16">
+        <v>66</v>
+      </c>
+      <c r="I58" s="16">
+        <v>66</v>
+      </c>
+      <c r="J58" s="16">
+        <v>66</v>
+      </c>
+      <c r="K58" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2253,18 +3139,33 @@
       <c r="C59" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="10">
-        <v>65</v>
-      </c>
-      <c r="E59" s="10">
-        <v>62</v>
-      </c>
-      <c r="F59" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="15">
+      <c r="D59" s="15">
+        <v>65</v>
+      </c>
+      <c r="E59" s="15">
+        <v>62</v>
+      </c>
+      <c r="F59" s="16">
+        <v>66</v>
+      </c>
+      <c r="G59" s="16">
+        <v>66</v>
+      </c>
+      <c r="H59" s="16">
+        <v>66</v>
+      </c>
+      <c r="I59" s="16">
+        <v>66</v>
+      </c>
+      <c r="J59" s="16">
+        <v>66</v>
+      </c>
+      <c r="K59" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2273,18 +3174,33 @@
       <c r="C60" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D60" s="10">
-        <v>65</v>
-      </c>
-      <c r="E60" s="10">
-        <v>62</v>
-      </c>
-      <c r="F60" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="15">
+      <c r="D60" s="15">
+        <v>65</v>
+      </c>
+      <c r="E60" s="15">
+        <v>62</v>
+      </c>
+      <c r="F60" s="16">
+        <v>66</v>
+      </c>
+      <c r="G60" s="16">
+        <v>66</v>
+      </c>
+      <c r="H60" s="16">
+        <v>66</v>
+      </c>
+      <c r="I60" s="16">
+        <v>66</v>
+      </c>
+      <c r="J60" s="16">
+        <v>66</v>
+      </c>
+      <c r="K60" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2293,18 +3209,33 @@
       <c r="C61" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="10">
-        <v>65</v>
-      </c>
-      <c r="E61" s="10">
-        <v>62</v>
-      </c>
-      <c r="F61" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="15">
+      <c r="D61" s="15">
+        <v>65</v>
+      </c>
+      <c r="E61" s="15">
+        <v>62</v>
+      </c>
+      <c r="F61" s="16">
+        <v>66</v>
+      </c>
+      <c r="G61" s="16">
+        <v>66</v>
+      </c>
+      <c r="H61" s="16">
+        <v>66</v>
+      </c>
+      <c r="I61" s="16">
+        <v>66</v>
+      </c>
+      <c r="J61" s="16">
+        <v>66</v>
+      </c>
+      <c r="K61" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2313,18 +3244,33 @@
       <c r="C62" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="10">
-        <v>65</v>
-      </c>
-      <c r="E62" s="10">
-        <v>62</v>
-      </c>
-      <c r="F62" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="15">
+      <c r="D62" s="15">
+        <v>65</v>
+      </c>
+      <c r="E62" s="15">
+        <v>62</v>
+      </c>
+      <c r="F62" s="16">
+        <v>66</v>
+      </c>
+      <c r="G62" s="16">
+        <v>66</v>
+      </c>
+      <c r="H62" s="16">
+        <v>66</v>
+      </c>
+      <c r="I62" s="16">
+        <v>66</v>
+      </c>
+      <c r="J62" s="16">
+        <v>66</v>
+      </c>
+      <c r="K62" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2333,18 +3279,33 @@
       <c r="C63" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="10">
-        <v>65</v>
-      </c>
-      <c r="E63" s="10">
-        <v>62</v>
-      </c>
-      <c r="F63" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="15">
+      <c r="D63" s="15">
+        <v>65</v>
+      </c>
+      <c r="E63" s="15">
+        <v>62</v>
+      </c>
+      <c r="F63" s="16">
+        <v>66</v>
+      </c>
+      <c r="G63" s="16">
+        <v>66</v>
+      </c>
+      <c r="H63" s="16">
+        <v>66</v>
+      </c>
+      <c r="I63" s="16">
+        <v>66</v>
+      </c>
+      <c r="J63" s="16">
+        <v>66</v>
+      </c>
+      <c r="K63" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2353,18 +3314,33 @@
       <c r="C64" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="10">
-        <v>65</v>
-      </c>
-      <c r="E64" s="10">
-        <v>62</v>
-      </c>
-      <c r="F64" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="15">
+      <c r="D64" s="15">
+        <v>65</v>
+      </c>
+      <c r="E64" s="15">
+        <v>62</v>
+      </c>
+      <c r="F64" s="16">
+        <v>66</v>
+      </c>
+      <c r="G64" s="16">
+        <v>66</v>
+      </c>
+      <c r="H64" s="16">
+        <v>66</v>
+      </c>
+      <c r="I64" s="16">
+        <v>66</v>
+      </c>
+      <c r="J64" s="16">
+        <v>66</v>
+      </c>
+      <c r="K64" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2373,18 +3349,33 @@
       <c r="C65" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D65" s="10">
-        <v>65</v>
-      </c>
-      <c r="E65" s="10">
-        <v>62</v>
-      </c>
-      <c r="F65" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="15">
+      <c r="D65" s="15">
+        <v>65</v>
+      </c>
+      <c r="E65" s="15">
+        <v>62</v>
+      </c>
+      <c r="F65" s="16">
+        <v>66</v>
+      </c>
+      <c r="G65" s="16">
+        <v>66</v>
+      </c>
+      <c r="H65" s="16">
+        <v>66</v>
+      </c>
+      <c r="I65" s="16">
+        <v>66</v>
+      </c>
+      <c r="J65" s="16">
+        <v>66</v>
+      </c>
+      <c r="K65" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2393,18 +3384,33 @@
       <c r="C66" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="10">
-        <v>65</v>
-      </c>
-      <c r="E66" s="10">
-        <v>62</v>
-      </c>
-      <c r="F66" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="15">
+      <c r="D66" s="15">
+        <v>65</v>
+      </c>
+      <c r="E66" s="15">
+        <v>62</v>
+      </c>
+      <c r="F66" s="16">
+        <v>66</v>
+      </c>
+      <c r="G66" s="16">
+        <v>66</v>
+      </c>
+      <c r="H66" s="16">
+        <v>66</v>
+      </c>
+      <c r="I66" s="16">
+        <v>66</v>
+      </c>
+      <c r="J66" s="16">
+        <v>66</v>
+      </c>
+      <c r="K66" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2413,18 +3419,33 @@
       <c r="C67" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="10">
-        <v>65</v>
-      </c>
-      <c r="E67" s="10">
-        <v>62</v>
-      </c>
-      <c r="F67" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="15">
+      <c r="D67" s="15">
+        <v>65</v>
+      </c>
+      <c r="E67" s="15">
+        <v>62</v>
+      </c>
+      <c r="F67" s="16">
+        <v>66</v>
+      </c>
+      <c r="G67" s="16">
+        <v>66</v>
+      </c>
+      <c r="H67" s="16">
+        <v>66</v>
+      </c>
+      <c r="I67" s="16">
+        <v>66</v>
+      </c>
+      <c r="J67" s="16">
+        <v>66</v>
+      </c>
+      <c r="K67" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2433,18 +3454,33 @@
       <c r="C68" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="10">
-        <v>65</v>
-      </c>
-      <c r="E68" s="10">
-        <v>62</v>
-      </c>
-      <c r="F68" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="15">
+      <c r="D68" s="15">
+        <v>65</v>
+      </c>
+      <c r="E68" s="15">
+        <v>62</v>
+      </c>
+      <c r="F68" s="16">
+        <v>66</v>
+      </c>
+      <c r="G68" s="16">
+        <v>66</v>
+      </c>
+      <c r="H68" s="16">
+        <v>66</v>
+      </c>
+      <c r="I68" s="16">
+        <v>66</v>
+      </c>
+      <c r="J68" s="16">
+        <v>66</v>
+      </c>
+      <c r="K68" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2453,18 +3489,33 @@
       <c r="C69" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="10">
-        <v>65</v>
-      </c>
-      <c r="E69" s="10">
-        <v>62</v>
-      </c>
-      <c r="F69" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="15">
+      <c r="D69" s="15">
+        <v>65</v>
+      </c>
+      <c r="E69" s="15">
+        <v>62</v>
+      </c>
+      <c r="F69" s="16">
+        <v>66</v>
+      </c>
+      <c r="G69" s="16">
+        <v>66</v>
+      </c>
+      <c r="H69" s="16">
+        <v>66</v>
+      </c>
+      <c r="I69" s="16">
+        <v>66</v>
+      </c>
+      <c r="J69" s="16">
+        <v>66</v>
+      </c>
+      <c r="K69" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2473,18 +3524,33 @@
       <c r="C70" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="10">
-        <v>65</v>
-      </c>
-      <c r="E70" s="10">
-        <v>62</v>
-      </c>
-      <c r="F70" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="15">
+      <c r="D70" s="15">
+        <v>65</v>
+      </c>
+      <c r="E70" s="15">
+        <v>62</v>
+      </c>
+      <c r="F70" s="16">
+        <v>66</v>
+      </c>
+      <c r="G70" s="16">
+        <v>66</v>
+      </c>
+      <c r="H70" s="16">
+        <v>66</v>
+      </c>
+      <c r="I70" s="16">
+        <v>66</v>
+      </c>
+      <c r="J70" s="16">
+        <v>66</v>
+      </c>
+      <c r="K70" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2493,18 +3559,33 @@
       <c r="C71" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="10">
-        <v>65</v>
-      </c>
-      <c r="E71" s="10">
-        <v>62</v>
-      </c>
-      <c r="F71" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="15">
+      <c r="D71" s="15">
+        <v>65</v>
+      </c>
+      <c r="E71" s="15">
+        <v>62</v>
+      </c>
+      <c r="F71" s="16">
+        <v>66</v>
+      </c>
+      <c r="G71" s="16">
+        <v>66</v>
+      </c>
+      <c r="H71" s="16">
+        <v>66</v>
+      </c>
+      <c r="I71" s="16">
+        <v>66</v>
+      </c>
+      <c r="J71" s="16">
+        <v>66</v>
+      </c>
+      <c r="K71" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2513,18 +3594,33 @@
       <c r="C72" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D72" s="10">
-        <v>65</v>
-      </c>
-      <c r="E72" s="10">
-        <v>62</v>
-      </c>
-      <c r="F72" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="15">
+      <c r="D72" s="15">
+        <v>65</v>
+      </c>
+      <c r="E72" s="15">
+        <v>62</v>
+      </c>
+      <c r="F72" s="16">
+        <v>66</v>
+      </c>
+      <c r="G72" s="16">
+        <v>66</v>
+      </c>
+      <c r="H72" s="16">
+        <v>66</v>
+      </c>
+      <c r="I72" s="16">
+        <v>66</v>
+      </c>
+      <c r="J72" s="16">
+        <v>66</v>
+      </c>
+      <c r="K72" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2533,18 +3629,33 @@
       <c r="C73" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="10">
-        <v>65</v>
-      </c>
-      <c r="E73" s="10">
-        <v>62</v>
-      </c>
-      <c r="F73" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="15">
+      <c r="D73" s="15">
+        <v>65</v>
+      </c>
+      <c r="E73" s="15">
+        <v>62</v>
+      </c>
+      <c r="F73" s="16">
+        <v>66</v>
+      </c>
+      <c r="G73" s="16">
+        <v>66</v>
+      </c>
+      <c r="H73" s="16">
+        <v>66</v>
+      </c>
+      <c r="I73" s="16">
+        <v>66</v>
+      </c>
+      <c r="J73" s="16">
+        <v>66</v>
+      </c>
+      <c r="K73" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -2553,18 +3664,33 @@
       <c r="C74" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="10">
-        <v>65</v>
-      </c>
-      <c r="E74" s="10">
-        <v>62</v>
-      </c>
-      <c r="F74" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="15">
+      <c r="D74" s="15">
+        <v>65</v>
+      </c>
+      <c r="E74" s="15">
+        <v>62</v>
+      </c>
+      <c r="F74" s="16">
+        <v>66</v>
+      </c>
+      <c r="G74" s="16">
+        <v>66</v>
+      </c>
+      <c r="H74" s="16">
+        <v>66</v>
+      </c>
+      <c r="I74" s="16">
+        <v>66</v>
+      </c>
+      <c r="J74" s="16">
+        <v>66</v>
+      </c>
+      <c r="K74" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2573,18 +3699,33 @@
       <c r="C75" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="10">
-        <v>65</v>
-      </c>
-      <c r="E75" s="10">
-        <v>62</v>
-      </c>
-      <c r="F75" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="15">
+      <c r="D75" s="15">
+        <v>65</v>
+      </c>
+      <c r="E75" s="15">
+        <v>62</v>
+      </c>
+      <c r="F75" s="16">
+        <v>66</v>
+      </c>
+      <c r="G75" s="16">
+        <v>66</v>
+      </c>
+      <c r="H75" s="16">
+        <v>66</v>
+      </c>
+      <c r="I75" s="16">
+        <v>66</v>
+      </c>
+      <c r="J75" s="16">
+        <v>66</v>
+      </c>
+      <c r="K75" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2593,18 +3734,33 @@
       <c r="C76" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="10">
-        <v>65</v>
-      </c>
-      <c r="E76" s="10">
-        <v>62</v>
-      </c>
-      <c r="F76" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
+      <c r="D76" s="15">
+        <v>65</v>
+      </c>
+      <c r="E76" s="15">
+        <v>62</v>
+      </c>
+      <c r="F76" s="16">
+        <v>66</v>
+      </c>
+      <c r="G76" s="16">
+        <v>66</v>
+      </c>
+      <c r="H76" s="16">
+        <v>66</v>
+      </c>
+      <c r="I76" s="16">
+        <v>66</v>
+      </c>
+      <c r="J76" s="16">
+        <v>66</v>
+      </c>
+      <c r="K76" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2613,18 +3769,33 @@
       <c r="C77" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="10">
-        <v>65</v>
-      </c>
-      <c r="E77" s="10">
-        <v>62</v>
-      </c>
-      <c r="F77" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
+      <c r="D77" s="15">
+        <v>65</v>
+      </c>
+      <c r="E77" s="15">
+        <v>62</v>
+      </c>
+      <c r="F77" s="16">
+        <v>66</v>
+      </c>
+      <c r="G77" s="16">
+        <v>66</v>
+      </c>
+      <c r="H77" s="16">
+        <v>66</v>
+      </c>
+      <c r="I77" s="16">
+        <v>66</v>
+      </c>
+      <c r="J77" s="16">
+        <v>66</v>
+      </c>
+      <c r="K77" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="12">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -2633,14 +3804,29 @@
       <c r="C78" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="10">
-        <v>65</v>
-      </c>
-      <c r="E78" s="10">
-        <v>62</v>
-      </c>
-      <c r="F78" s="12">
-        <v>66</v>
+      <c r="D78" s="15">
+        <v>65</v>
+      </c>
+      <c r="E78" s="15">
+        <v>62</v>
+      </c>
+      <c r="F78" s="16">
+        <v>66</v>
+      </c>
+      <c r="G78" s="16">
+        <v>66</v>
+      </c>
+      <c r="H78" s="16">
+        <v>66</v>
+      </c>
+      <c r="I78" s="16">
+        <v>66</v>
+      </c>
+      <c r="J78" s="16">
+        <v>66</v>
+      </c>
+      <c r="K78" s="15">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
